--- a/output_data/charts/facilities-Marion-1600000US3947754.xlsx
+++ b/output_data/charts/facilities-Marion-1600000US3947754.xlsx
@@ -898,10 +898,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
